--- a/用例数据/沪A/ETF拆分/限售股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/限售股分配/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="305">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -933,6 +933,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,6 +959,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -964,7 +974,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -972,13 +982,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1261,13 +1289,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="CA9" sqref="CA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>281</v>
       </c>
@@ -1705,6 +1733,9 @@
       <c r="F2" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>142</v>
       </c>
@@ -2009,7 +2040,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -2028,6 +2059,9 @@
       <c r="F3" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>168</v>
       </c>
@@ -2332,7 +2366,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>292</v>
       </c>
@@ -2351,6 +2385,9 @@
       <c r="F4" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>174</v>
       </c>
@@ -2655,7 +2692,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>295</v>
       </c>
@@ -2674,6 +2711,9 @@
       <c r="F5" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>168</v>
       </c>
@@ -2978,7 +3018,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>297</v>
       </c>
@@ -2997,6 +3037,9 @@
       <c r="F6" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>142</v>
       </c>
@@ -3301,7 +3344,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>300</v>
       </c>
@@ -3319,6 +3362,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>181</v>
@@ -3627,6 +3673,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/用例数据/沪A/ETF拆分/限售股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/限售股分配/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="304">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -930,6 +930,10 @@
   </si>
   <si>
     <t>000006908584</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1257,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1892,7 @@
         <v>158</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>153</v>
@@ -2211,7 +2215,7 @@
         <v>158</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>153</v>
@@ -2534,7 +2538,7 @@
         <v>158</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>153</v>
@@ -2857,7 +2861,7 @@
         <v>158</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>153</v>
@@ -3180,7 +3184,7 @@
         <v>158</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>153</v>
@@ -3503,7 +3507,7 @@
         <v>158</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>153</v>

--- a/用例数据/沪A/ETF拆分/限售股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/限售股分配/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="306">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -560,384 +560,385 @@
     <t>2500</t>
   </si>
   <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>000011725201</t>
+  </si>
+  <si>
+    <t>A117252001</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>REGNAME</t>
+  </si>
+  <si>
+    <t>OFFERREGID</t>
+  </si>
+  <si>
+    <t>EXCHTRUSTEESHIPQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSQTY</t>
+  </si>
+  <si>
+    <t>PREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>STKVALUE</t>
+  </si>
+  <si>
+    <t>PREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>USABLEQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTY</t>
+  </si>
+  <si>
+    <t>UNSALEABLEQTY</t>
+  </si>
+  <si>
+    <t>SELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>BUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>EXCEPTFROZENQTY</t>
+  </si>
+  <si>
+    <t>REALTIMECOST</t>
+  </si>
+  <si>
+    <t>REALTIMEINCOME</t>
+  </si>
+  <si>
+    <t>CURRENTSTKVALUE</t>
+  </si>
+  <si>
+    <t>NEWPRICE</t>
+  </si>
+  <si>
+    <t>ETFKNOCKQTY</t>
+  </si>
+  <si>
+    <t>SELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>ETFUSEDQTY</t>
+  </si>
+  <si>
+    <t>NEEDSETTLEQTY</t>
+  </si>
+  <si>
+    <t>IMPAWNQTY</t>
+  </si>
+  <si>
+    <t>WARRANTUSEDQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>BONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>HOLDSTATUS</t>
+  </si>
+  <si>
+    <t>CREDITSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CURRENTCREDITSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREFROZENQTY</t>
+  </si>
+  <si>
+    <t>GUARANTYQTY</t>
+  </si>
+  <si>
+    <t>CURRENTQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBRANCHID</t>
+  </si>
+  <si>
+    <t>GOINGBUYQTY</t>
+  </si>
+  <si>
+    <t>TOTALSELLQTY</t>
+  </si>
+  <si>
+    <t>SELLLIMITQTY</t>
+  </si>
+  <si>
+    <t>WAITSETTLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHFROZENQTY</t>
+  </si>
+  <si>
+    <t>DIVIDENDAMT</t>
+  </si>
+  <si>
+    <t>DIVIDENDQTY</t>
+  </si>
+  <si>
+    <t>AGREEREPOQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEQTY</t>
+  </si>
+  <si>
+    <t>QBONDPLEDGEUSABLEQTY</t>
+  </si>
+  <si>
+    <t>EXCHSELLFROZENQTY</t>
+  </si>
+  <si>
+    <t>ETFPURCHASEFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSUSABLEQTY</t>
+  </si>
+  <si>
+    <t>INTSBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>INTSSELLUSEDQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEAMT</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALOPENFEE</t>
+  </si>
+  <si>
+    <t>TDTOTALCLOSEFEE</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENUSABLEQTY</t>
+  </si>
+  <si>
+    <t>COVEREDFROZENPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSCOST</t>
+  </si>
+  <si>
+    <t>SETTLESTKVALUE</t>
+  </si>
+  <si>
+    <t>SETTLEPREVIOUSINCOME</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITINSHAREQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREUSEDQTY</t>
+  </si>
+  <si>
+    <t>CREDITOUTSHAREQTY</t>
+  </si>
+  <si>
+    <t>NOUSEINITQTY</t>
+  </si>
+  <si>
+    <t>USEDUNFROZENQTY</t>
+  </si>
+  <si>
+    <t>FASTUPDATECNT</t>
+  </si>
+  <si>
+    <t>CREDITSPAREQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTBUYQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTSELLQTY</t>
+  </si>
+  <si>
+    <t>OCCURCREDITLOCKSHAREQTY</t>
+  </si>
+  <si>
+    <t>GAPFROZENQTY</t>
+  </si>
+  <si>
+    <t>ZRTTRANSQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>1.000000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>FROZENQTY</t>
+  </si>
+  <si>
+    <t>SETTLEYEAR</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>16667</t>
+  </si>
+  <si>
+    <t>11667</t>
+  </si>
+  <si>
+    <t>23333</t>
+  </si>
+  <si>
+    <t>1.44000000</t>
+  </si>
+  <si>
+    <t>1369025.0000</t>
+  </si>
+  <si>
+    <t>109.5220</t>
+  </si>
+  <si>
+    <t>0.80000000</t>
+  </si>
+  <si>
+    <t>0.74998500</t>
+  </si>
+  <si>
+    <t>14466.9600</t>
+  </si>
+  <si>
+    <t>0.8680</t>
+  </si>
+  <si>
+    <t>1.28567755</t>
+  </si>
+  <si>
+    <t>1277793.1700</t>
+  </si>
+  <si>
+    <t>0.75000000</t>
+  </si>
+  <si>
+    <t>17360.0000</t>
+  </si>
+  <si>
+    <t>0.82115459</t>
+  </si>
+  <si>
+    <t>2555476.8300</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>20221128162014</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>20221128000000</t>
+  </si>
+  <si>
+    <t>11529480.270</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20221128162015</t>
+  </si>
+  <si>
+    <t>15961551.890</t>
+  </si>
+  <si>
+    <t>-27880000.180</t>
+  </si>
+  <si>
+    <t>12159465.270</t>
+  </si>
+  <si>
+    <t>35858.400</t>
+  </si>
+  <si>
+    <t>30001309</t>
+  </si>
+  <si>
+    <t>0.86800000</t>
+  </si>
+  <si>
+    <t>000007055098</t>
+  </si>
+  <si>
+    <t>30001419</t>
+  </si>
+  <si>
     <t>109.52200000</t>
   </si>
   <si>
-    <t>1667</t>
-  </si>
-  <si>
-    <t>000011725201</t>
-  </si>
-  <si>
-    <t>A117252001</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>REGNAME</t>
-  </si>
-  <si>
-    <t>OFFERREGID</t>
-  </si>
-  <si>
-    <t>EXCHTRUSTEESHIPQTY</t>
-  </si>
-  <si>
-    <t>PREVIOUSQTY</t>
-  </si>
-  <si>
-    <t>PREVIOUSCOST</t>
-  </si>
-  <si>
-    <t>STKVALUE</t>
-  </si>
-  <si>
-    <t>PREVIOUSINCOME</t>
-  </si>
-  <si>
-    <t>USABLEQTY</t>
-  </si>
-  <si>
-    <t>CURRENTQTY</t>
-  </si>
-  <si>
-    <t>UNSALEABLEQTY</t>
-  </si>
-  <si>
-    <t>SELLFROZENQTY</t>
-  </si>
-  <si>
-    <t>BUYFROZENQTY</t>
-  </si>
-  <si>
-    <t>EXCEPTFROZENQTY</t>
-  </si>
-  <si>
-    <t>REALTIMECOST</t>
-  </si>
-  <si>
-    <t>REALTIMEINCOME</t>
-  </si>
-  <si>
-    <t>CURRENTSTKVALUE</t>
-  </si>
-  <si>
-    <t>NEWPRICE</t>
-  </si>
-  <si>
-    <t>ETFKNOCKQTY</t>
-  </si>
-  <si>
-    <t>SELLUSEDQTY</t>
-  </si>
-  <si>
-    <t>ETFUSEDQTY</t>
-  </si>
-  <si>
-    <t>NEEDSETTLEQTY</t>
-  </si>
-  <si>
-    <t>IMPAWNQTY</t>
-  </si>
-  <si>
-    <t>WARRANTUSEDQTY</t>
-  </si>
-  <si>
-    <t>BONDPLEDGEQTY</t>
-  </si>
-  <si>
-    <t>BONDPLEDGEUSABLEQTY</t>
-  </si>
-  <si>
-    <t>HOLDSTATUS</t>
-  </si>
-  <si>
-    <t>CREDITSHAREUSEDQTY</t>
-  </si>
-  <si>
-    <t>CURRENTCREDITSHAREQTY</t>
-  </si>
-  <si>
-    <t>CREDITSHAREFROZENQTY</t>
-  </si>
-  <si>
-    <t>GUARANTYQTY</t>
-  </si>
-  <si>
-    <t>CURRENTQTYF</t>
-  </si>
-  <si>
-    <t>CUSTBRANCHID</t>
-  </si>
-  <si>
-    <t>GOINGBUYQTY</t>
-  </si>
-  <si>
-    <t>TOTALSELLQTY</t>
-  </si>
-  <si>
-    <t>SELLLIMITQTY</t>
-  </si>
-  <si>
-    <t>WAITSETTLEQTY</t>
-  </si>
-  <si>
-    <t>EXCHFROZENQTY</t>
-  </si>
-  <si>
-    <t>DIVIDENDAMT</t>
-  </si>
-  <si>
-    <t>DIVIDENDQTY</t>
-  </si>
-  <si>
-    <t>AGREEREPOQTY</t>
-  </si>
-  <si>
-    <t>QBONDPLEDGEQTY</t>
-  </si>
-  <si>
-    <t>QBONDPLEDGEUSABLEQTY</t>
-  </si>
-  <si>
-    <t>EXCHSELLFROZENQTY</t>
-  </si>
-  <si>
-    <t>ETFPURCHASEFROZENQTY</t>
-  </si>
-  <si>
-    <t>INTSUSABLEQTY</t>
-  </si>
-  <si>
-    <t>INTSBUYFROZENQTY</t>
-  </si>
-  <si>
-    <t>INTSSELLUSEDQTY</t>
-  </si>
-  <si>
-    <t>TDTOTALOPENAMT</t>
-  </si>
-  <si>
-    <t>TDTOTALOPENQTY</t>
-  </si>
-  <si>
-    <t>TDTOTALCLOSEAMT</t>
-  </si>
-  <si>
-    <t>TDTOTALCLOSEQTY</t>
-  </si>
-  <si>
-    <t>TDTOTALOPENFEE</t>
-  </si>
-  <si>
-    <t>TDTOTALCLOSEFEE</t>
-  </si>
-  <si>
-    <t>COVEREDFROZENQTY</t>
-  </si>
-  <si>
-    <t>COVEREDFROZENUSABLEQTY</t>
-  </si>
-  <si>
-    <t>COVEREDFROZENPOSITIONQTY</t>
-  </si>
-  <si>
-    <t>SETTLEPREVIOUSCOST</t>
-  </si>
-  <si>
-    <t>SETTLESTKVALUE</t>
-  </si>
-  <si>
-    <t>SETTLEPREVIOUSINCOME</t>
-  </si>
-  <si>
-    <t>CREDITINSHAREUSEDQTY</t>
-  </si>
-  <si>
-    <t>CREDITINSHAREQTY</t>
-  </si>
-  <si>
-    <t>CREDITOUTSHAREUSEDQTY</t>
-  </si>
-  <si>
-    <t>CREDITOUTSHAREQTY</t>
-  </si>
-  <si>
-    <t>NOUSEINITQTY</t>
-  </si>
-  <si>
-    <t>USEDUNFROZENQTY</t>
-  </si>
-  <si>
-    <t>FASTUPDATECNT</t>
-  </si>
-  <si>
-    <t>CREDITSPAREQTY</t>
-  </si>
-  <si>
-    <t>TDTOTALNOTBUYQTY</t>
-  </si>
-  <si>
-    <t>TDTOTALNOTSELLQTY</t>
-  </si>
-  <si>
-    <t>OCCURCREDITLOCKSHAREQTY</t>
-  </si>
-  <si>
-    <t>GAPFROZENQTY</t>
-  </si>
-  <si>
-    <t>ZRTTRANSQTY</t>
-  </si>
-  <si>
-    <t>CREDITSHAREGOINGQTY</t>
-  </si>
-  <si>
-    <t>CREDITUSABLEQTY</t>
-  </si>
-  <si>
-    <t>CREDITBUYFROZENQTY</t>
-  </si>
-  <si>
-    <t>1.000000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>FROZENQTY</t>
-  </si>
-  <si>
-    <t>SETTLEYEAR</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>12500</t>
-  </si>
-  <si>
-    <t>16667</t>
-  </si>
-  <si>
-    <t>11667</t>
-  </si>
-  <si>
-    <t>23333</t>
-  </si>
-  <si>
-    <t>1.44000000</t>
-  </si>
-  <si>
-    <t>1369025.0000</t>
-  </si>
-  <si>
-    <t>109.5220</t>
-  </si>
-  <si>
-    <t>0.80000000</t>
-  </si>
-  <si>
-    <t>0.74998500</t>
-  </si>
-  <si>
-    <t>14466.9600</t>
-  </si>
-  <si>
-    <t>0.8680</t>
-  </si>
-  <si>
-    <t>1.28567755</t>
-  </si>
-  <si>
-    <t>1277793.1700</t>
-  </si>
-  <si>
-    <t>0.75000000</t>
-  </si>
-  <si>
-    <t>17360.0000</t>
-  </si>
-  <si>
-    <t>0.82115459</t>
-  </si>
-  <si>
-    <t>2555476.8300</t>
-  </si>
-  <si>
-    <t>30052752</t>
-  </si>
-  <si>
-    <t>20221011231453</t>
-  </si>
-  <si>
-    <t>0.86800000</t>
-  </si>
-  <si>
-    <t>20221011000000</t>
-  </si>
-  <si>
-    <t>10049000.000</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>000006908462</t>
-  </si>
-  <si>
-    <t>30052870</t>
-  </si>
-  <si>
-    <t>-26058481.090</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>000006908580</t>
-  </si>
-  <si>
-    <t>30052871</t>
-  </si>
-  <si>
-    <t>1000778735.780</t>
-  </si>
-  <si>
-    <t>000006908581</t>
-  </si>
-  <si>
-    <t>30052872</t>
-  </si>
-  <si>
-    <t>000006908582</t>
-  </si>
-  <si>
-    <t>30052873</t>
-  </si>
-  <si>
-    <t>10676985.000</t>
-  </si>
-  <si>
-    <t>000006908583</t>
-  </si>
-  <si>
-    <t>30052874</t>
-  </si>
-  <si>
-    <t>10021000.000</t>
-  </si>
-  <si>
-    <t>000006908584</t>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>000007055208</t>
+  </si>
+  <si>
+    <t>30001418</t>
+  </si>
+  <si>
+    <t>000007055207</t>
+  </si>
+  <si>
+    <t>30001420</t>
+  </si>
+  <si>
+    <t>000007055209</t>
+  </si>
+  <si>
+    <t>30001421</t>
+  </si>
+  <si>
+    <t>000007055210</t>
+  </si>
+  <si>
+    <t>30001422</t>
+  </si>
+  <si>
+    <t>000007055211</t>
   </si>
 </sst>
 </file>
@@ -1290,12 +1291,12 @@
   <dimension ref="A1:EI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,9 +1715,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>139</v>
@@ -1725,16 +1726,17 @@
         <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>142</v>
@@ -1776,19 +1778,19 @@
         <v>152</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>141</v>
@@ -1836,7 +1838,7 @@
         <v>154</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>142</v>
@@ -1860,7 +1862,7 @@
         <v>153</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>141</v>
@@ -1923,7 +1925,7 @@
         <v>158</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>153</v>
@@ -1941,7 +1943,7 @@
         <v>141</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>159</v>
@@ -2040,9 +2042,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>139</v>
@@ -2051,34 +2053,35 @@
         <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>147</v>
@@ -2099,14 +2102,14 @@
         <v>151</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="Y3" s="1" t="s">
         <v>153</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>153</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>141</v>
@@ -2162,13 +2165,13 @@
         <v>154</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>155</v>
@@ -2177,7 +2180,7 @@
         <v>144</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>157</v>
@@ -2186,7 +2189,7 @@
         <v>153</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>141</v>
@@ -2219,7 +2222,7 @@
         <v>141</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>159</v>
@@ -2249,7 +2252,7 @@
         <v>158</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>153</v>
@@ -2267,7 +2270,7 @@
         <v>141</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>159</v>
@@ -2366,9 +2369,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>139</v>
@@ -2377,34 +2380,35 @@
         <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>144</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>147</v>
@@ -2425,13 +2429,13 @@
         <v>151</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>153</v>
@@ -2440,7 +2444,7 @@
         <v>153</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>141</v>
@@ -2488,13 +2492,13 @@
         <v>154</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>155</v>
@@ -2503,7 +2507,7 @@
         <v>144</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>157</v>
@@ -2512,7 +2516,7 @@
         <v>153</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>141</v>
@@ -2545,7 +2549,7 @@
         <v>141</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>159</v>
@@ -2575,7 +2579,7 @@
         <v>158</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>153</v>
@@ -2593,7 +2597,7 @@
         <v>141</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>159</v>
@@ -2692,9 +2696,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>139</v>
@@ -2703,16 +2707,17 @@
         <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>168</v>
@@ -2754,10 +2759,10 @@
         <v>178</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>153</v>
@@ -2814,7 +2819,7 @@
         <v>154</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>168</v>
@@ -2838,7 +2843,7 @@
         <v>153</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>141</v>
@@ -2871,7 +2876,7 @@
         <v>141</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>159</v>
@@ -2901,7 +2906,7 @@
         <v>158</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>153</v>
@@ -2919,7 +2924,7 @@
         <v>141</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>159</v>
@@ -3018,9 +3023,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>139</v>
@@ -3029,16 +3034,17 @@
         <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>142</v>
@@ -3077,13 +3083,13 @@
         <v>151</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>153</v>
@@ -3092,7 +3098,7 @@
         <v>153</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>141</v>
@@ -3140,7 +3146,7 @@
         <v>154</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>142</v>
@@ -3164,7 +3170,7 @@
         <v>153</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>141</v>
@@ -3227,25 +3233,25 @@
         <v>158</v>
       </c>
       <c r="BZ6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH6" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>159</v>
@@ -3344,9 +3350,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>139</v>
@@ -3355,19 +3361,20 @@
         <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>169</v>
@@ -3376,7 +3383,7 @@
         <v>144</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>176</v>
@@ -3403,13 +3410,13 @@
         <v>151</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>153</v>
@@ -3418,7 +3425,7 @@
         <v>153</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>141</v>
@@ -3466,10 +3473,10 @@
         <v>154</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>169</v>
@@ -3490,7 +3497,7 @@
         <v>153</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>141</v>
@@ -3523,7 +3530,7 @@
         <v>141</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>159</v>
@@ -3553,7 +3560,7 @@
         <v>158</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>153</v>
@@ -3571,7 +3578,7 @@
         <v>141</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>159</v>
@@ -3685,9 +3692,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3701,10 +3708,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -3713,43 +3720,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
@@ -3764,190 +3771,190 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CH1" s="1" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
@@ -3979,11 +3986,11 @@
         <v>141</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="M2" s="1" t="s">
         <v>153</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>141</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>141</v>
@@ -4027,7 +4034,7 @@
         <v>157</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>141</v>
@@ -4081,7 +4088,7 @@
         <v>141</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>141</v>
@@ -4150,13 +4157,13 @@
         <v>161</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>141</v>
@@ -4207,7 +4214,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -4239,10 +4246,10 @@
         <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>153</v>
@@ -4254,7 +4261,7 @@
         <v>141</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>141</v>
@@ -4287,7 +4294,7 @@
         <v>157</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>141</v>
@@ -4341,7 +4348,7 @@
         <v>141</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>141</v>
@@ -4410,13 +4417,13 @@
         <v>161</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>141</v>
@@ -4467,7 +4474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -4499,11 +4506,11 @@
         <v>141</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="M4" s="1" t="s">
         <v>153</v>
       </c>
@@ -4514,7 +4521,7 @@
         <v>141</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>141</v>
@@ -4547,7 +4554,7 @@
         <v>157</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>141</v>
@@ -4601,7 +4608,7 @@
         <v>141</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>141</v>
@@ -4670,13 +4677,13 @@
         <v>161</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>141</v>
@@ -4727,7 +4734,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -4759,11 +4766,11 @@
         <v>141</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="M5" s="1" t="s">
         <v>153</v>
       </c>
@@ -4774,7 +4781,7 @@
         <v>141</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>141</v>
@@ -4807,7 +4814,7 @@
         <v>157</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>141</v>
@@ -4861,7 +4868,7 @@
         <v>141</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>141</v>
@@ -4930,13 +4937,13 @@
         <v>161</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>141</v>
@@ -4987,7 +4994,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -5019,11 +5026,11 @@
         <v>141</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="M6" s="1" t="s">
         <v>153</v>
       </c>
@@ -5034,7 +5041,7 @@
         <v>141</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>141</v>
@@ -5067,7 +5074,7 @@
         <v>157</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>141</v>
@@ -5121,7 +5128,7 @@
         <v>141</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>141</v>
@@ -5190,13 +5197,13 @@
         <v>161</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS6" s="1" t="s">
         <v>141</v>
@@ -5247,18 +5254,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>169</v>
@@ -5279,11 +5286,11 @@
         <v>141</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="M7" s="1" t="s">
         <v>153</v>
       </c>
@@ -5294,7 +5301,7 @@
         <v>141</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>141</v>
@@ -5327,7 +5334,7 @@
         <v>157</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>141</v>
@@ -5381,7 +5388,7 @@
         <v>141</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>141</v>
@@ -5450,13 +5457,13 @@
         <v>161</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS7" s="1" t="s">
         <v>141</v>
@@ -5507,7 +5514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5522,9 +5529,9 @@
       <selection activeCell="A18" activeCellId="1" sqref="A2:A7 A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5538,7 +5545,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -5553,22 +5560,22 @@
         <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
@@ -5591,14 +5598,14 @@
         <v>150</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="K2" s="1" t="s">
         <v>141</v>
       </c>
@@ -5606,13 +5613,13 @@
         <v>141</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -5635,14 +5642,14 @@
         <v>150</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="K3" s="1" t="s">
         <v>141</v>
       </c>
@@ -5650,13 +5657,13 @@
         <v>141</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -5679,13 +5686,13 @@
         <v>150</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>141</v>
@@ -5694,13 +5701,13 @@
         <v>141</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -5723,13 +5730,13 @@
         <v>150</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>141</v>
@@ -5738,13 +5745,13 @@
         <v>141</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -5767,13 +5774,13 @@
         <v>150</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>141</v>
@@ -5782,24 +5789,24 @@
         <v>141</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>145</v>
@@ -5811,13 +5818,13 @@
         <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>141</v>
@@ -5826,19 +5833,19 @@
         <v>141</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
